--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 6</t>
+          <t>Unnamed: 3</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>471.7719518</v>
+        <v>525.11</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>159.4345005</v>
+        <v>177.46</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>177.492843</v>
+        <v>197.56</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>218.5957868</v>
+        <v>243.31</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>223.9773525</v>
+        <v>249.3</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>229.745241</v>
+        <v>255.72</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>247.4172608</v>
+        <v>275.39</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>248.9535675</v>
+        <v>277.1</v>
       </c>
     </row>
     <row r="10">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>256.6351013</v>
+        <v>285.65</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>263.166651</v>
+        <v>292.92</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>270.0845235</v>
+        <v>300.62</v>
       </c>
     </row>
     <row r="13">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>276.2297505</v>
+        <v>307.46</v>
       </c>
     </row>
     <row r="14">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>281.9886548</v>
+        <v>313.87</v>
       </c>
     </row>
     <row r="15">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>281.9886548</v>
+        <v>313.87</v>
       </c>
     </row>
   </sheetData>
